--- a/fd-comapre.xlsx
+++ b/fd-comapre.xlsx
@@ -101,12 +101,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,7 +141,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -150,7 +157,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -438,17 +445,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -474,7 +481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>20</v>
       </c>
@@ -542,7 +549,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -613,7 +620,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>3</v>
       </c>
@@ -681,7 +688,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>4</v>
       </c>
@@ -749,7 +756,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -820,7 +827,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>3</v>
       </c>
@@ -888,7 +895,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>4</v>
       </c>
@@ -956,7 +963,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -988,7 +995,7 @@
         <v>0.77</v>
       </c>
       <c r="K9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>1.47</v>
@@ -1027,7 +1034,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1095,7 +1102,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>4</v>
       </c>
@@ -1163,7 +1170,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -1234,7 +1241,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>3</v>
       </c>
@@ -1302,7 +1309,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1370,7 +1377,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1441,7 +1448,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>3</v>
       </c>
@@ -1509,7 +1516,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>4</v>
       </c>
@@ -1577,7 +1584,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>3</v>
       </c>
@@ -1716,7 +1723,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>4</v>
       </c>
@@ -1784,7 +1791,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1855,7 +1862,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>3</v>
       </c>
@@ -1923,7 +1930,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>4</v>
       </c>
@@ -1991,7 +1998,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2069,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>3</v>
       </c>
@@ -2130,7 +2137,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>4</v>
       </c>
@@ -2198,7 +2205,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2269,7 +2276,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>3</v>
       </c>
@@ -2337,7 +2344,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>4</v>
       </c>
@@ -2405,7 +2412,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2476,7 +2483,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>3</v>
       </c>
@@ -2544,7 +2551,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>4</v>
       </c>
@@ -2612,7 +2619,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -2683,7 +2690,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>3</v>
       </c>
@@ -2751,7 +2758,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>4</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -2890,7 +2897,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>3</v>
       </c>
@@ -2958,7 +2965,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>4</v>
       </c>
@@ -3026,7 +3033,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -3097,7 +3104,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>3</v>
       </c>
@@ -3165,7 +3172,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>4</v>
       </c>
@@ -3233,7 +3240,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3304,7 +3311,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>3</v>
       </c>
@@ -3372,7 +3379,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>4</v>
       </c>
@@ -3440,7 +3447,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3518,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>3</v>
       </c>
@@ -3579,7 +3586,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>4</v>
       </c>
@@ -3648,6 +3655,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
